--- a/日経社説ー春秋/「共謀罪」は十分な説明なしに進まない.xlsx
+++ b/日経社説ー春秋/「共謀罪」は十分な説明なしに進まない.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywu\Desktop\validation\draft\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>締結</t>
   </si>
@@ -123,18 +118,101 @@
   </si>
   <si>
     <t>期限間際に急いですること。</t>
+  </si>
+  <si>
+    <t>テロや組織的な犯罪を、実行する前の計画段階で処罰する「テロ等準備罪」の新設を目指し、政府が組織犯罪処罰法の改正を検討している。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これまでは「共謀罪」法案として３度国家に出されたが、「処罰対象が不明確で、恣意的に運用されかねない」といった批判が強く、いずれも廃案となった。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうした経緯を踏まえた結果であろうが、法案提出の前から始まっている国家の論戦は理解に苦しむ場面が多い。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>イメージの悪さを払拭する必要からか、「共謀罪とは全く違う」「発想を変えた新たな法律だ」との説明も聞かれた。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>だが、共謀罪と全く違うなら肝心の条約が締結できなくなってしまう。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうなると一体何を目指しているのかさえよく分からない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>これに加わらないと、外国との容疑者引き渡しが滞るなど不利益があることも理解できる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ただ条約の重点は本来、資金洗浄や人身取引などの組織犯罪に置かれている。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>もちろんテロも組織犯罪の一つで、同じような対策が有効だが、「テロのため」だけを協調すると本質からずれしまわないだろうか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そもそも国民の権利の侵害につながる懸念を持つ法案である。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「本当に条約を締結するために不可欠なのか」「どの程度、処罰対象を限定することが可能か」といった疑問点も多い。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まさかカジノ法の時のような、駆け込み的成立狙っているわけではなかろう。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ここはまずは腰を据えて、分かりやすく説明していく必要がある。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今の国会に法案を提出し、成立を図る構えだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>この法案は国際組織犯罪防止条約を締結するための前提として、各国に整備が義務付けられた法律という位置づけだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>２０２０年の東京五輪対策やテロ防止を過度に強調したり、条約上絞り込めないと名言していた６００超の対象犯罪を半数程度に削る姿勢を見せたり、政府側の対応は曖昧で二転三転している。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犯罪の共謀を罰する規定は、現行制度でもすでに爆発者取締罰則や国家公務員法などに１３あるという。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>問題は共謀罪をあrたに設けるということより、条約に便乗するような形で幅広く綱をかけようとしてきた政府側の姿勢であることを指摘しておきたい。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各国が一致して組織犯罪を封じ込めていくという条約の意義は大きい。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -158,11 +236,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -220,7 +301,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,7 +336,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,29 +513,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -464,8 +545,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -475,8 +556,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -486,8 +567,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -497,8 +578,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -508,8 +589,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -519,8 +600,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -530,8 +611,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
@@ -541,8 +622,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -552,8 +633,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -563,8 +644,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -574,7 +655,104 @@
         <v>32</v>
       </c>
     </row>
+    <row r="13" spans="1:3" ht="27">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="27">
+      <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="27">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="27">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="40.5">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="27">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="27">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="27">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="27">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="27">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="27">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>